--- a/public/files/template/inventory/pengadaan_barang_detail.xlsx
+++ b/public/files/template/inventory/pengadaan_barang_detail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\public_html\epuskesmas_prog\dev\public\files\template\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\epuskesmasgarut\public\files\template\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Keterangan</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>[a.harga]</t>
+  </si>
+  <si>
+    <t>Puskemas</t>
+  </si>
+  <si>
+    <t>[onshow.puskesmas]</t>
   </si>
 </sst>
 </file>
@@ -178,7 +184,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -194,8 +200,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C12:J13" totalsRowShown="0">
-  <autoFilter ref="C12:J13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C13:J14" totalsRowShown="0">
+  <autoFilter ref="C13:J14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Kode Barang"/>
     <tableColumn id="2" name="Nama Barang" dataDxfId="0"/>
@@ -497,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J13"/>
+  <dimension ref="C3:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,101 +531,109 @@
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>5</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>27</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>24</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>6</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>26</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J14" t="s">
         <v>25</v>
       </c>
     </row>

--- a/public/files/template/inventory/pengadaan_barang_detail.xlsx
+++ b/public/files/template/inventory/pengadaan_barang_detail.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Keterangan</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>[onshow.puskesmas]</t>
+  </si>
+  <si>
+    <t>Nomor Kwitansi</t>
+  </si>
+  <si>
+    <t>Tanggal Kwitansi</t>
+  </si>
+  <si>
+    <t>[onshow.nomor_kwitansi]</t>
+  </si>
+  <si>
+    <t>[onshow.tgl_kwitansi]</t>
   </si>
 </sst>
 </file>
@@ -200,8 +212,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C13:J14" totalsRowShown="0">
-  <autoFilter ref="C13:J14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C15:J16" totalsRowShown="0">
+  <autoFilter ref="C15:J16"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Kode Barang"/>
     <tableColumn id="2" name="Nama Barang" dataDxfId="0"/>
@@ -503,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J14"/>
+  <dimension ref="C3:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,77 +575,93 @@
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>3</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G15" t="s">
         <v>16</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H15" t="s">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I15" t="s">
         <v>17</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F16" t="s">
         <v>27</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G16" t="s">
         <v>24</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H16" t="s">
         <v>6</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I16" t="s">
         <v>26</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J16" t="s">
         <v>25</v>
       </c>
     </row>

--- a/public/files/template/inventory/pengadaan_barang_detail.xlsx
+++ b/public/files/template/inventory/pengadaan_barang_detail.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\epuskesmasgarut\public\files\template\inventory\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520"/>
   </bookViews>
@@ -128,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,7 +191,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -271,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,7 +301,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,7 +513,7 @@
   <dimension ref="C3:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
